--- a/opm_hero_property/heroes/1.xlsx
+++ b/opm_hero_property/heroes/1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="25600" windowHeight="10200" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="25600" windowHeight="10200" tabRatio="600" firstSheet="1" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1" concurrentCalc="0"/>
@@ -48,9 +49,8 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,8 +63,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -80,36 +103,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -117,7 +111,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -126,28 +120,6 @@
       <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,24 +134,53 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,7 +199,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,151 +247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +265,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,11 +396,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,45 +467,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -469,159 +476,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
@@ -1823,7 +1824,7 @@
         <v>10970</v>
       </c>
       <c r="D4" t="n">
-        <v>10970</v>
+        <v>11725</v>
       </c>
       <c r="E4" t="n">
         <v>269</v>
@@ -1930,7 +1931,7 @@
         <v>12070</v>
       </c>
       <c r="D5" t="n">
-        <v>12070</v>
+        <v>13679</v>
       </c>
       <c r="E5" t="n">
         <v>403</v>
@@ -2037,7 +2038,7 @@
         <v>13363</v>
       </c>
       <c r="D6" t="n">
-        <v>13363</v>
+        <v>15978</v>
       </c>
       <c r="E6" t="n">
         <v>552</v>
@@ -2144,7 +2145,7 @@
         <v>14851</v>
       </c>
       <c r="D7" t="n">
-        <v>14851</v>
+        <v>20778</v>
       </c>
       <c r="E7" t="n">
         <v>1035</v>
@@ -2251,7 +2252,7 @@
         <v>16532</v>
       </c>
       <c r="D8" t="n">
-        <v>16532</v>
+        <v>27417</v>
       </c>
       <c r="E8" t="n">
         <v>1533</v>
@@ -2358,7 +2359,7 @@
         <v>18473</v>
       </c>
       <c r="D9" t="n">
-        <v>18473</v>
+        <v>36356</v>
       </c>
       <c r="E9" t="n">
         <v>2024</v>
@@ -2465,7 +2466,7 @@
         <v>19508</v>
       </c>
       <c r="D10" t="n">
-        <v>19508</v>
+        <v>43800</v>
       </c>
       <c r="E10" t="n">
         <v>2392</v>
@@ -2572,7 +2573,7 @@
         <v>20737</v>
       </c>
       <c r="D11" t="n">
-        <v>20737</v>
+        <v>52940</v>
       </c>
       <c r="E11" t="n">
         <v>2790</v>
@@ -2679,7 +2680,7 @@
         <v>23324</v>
       </c>
       <c r="D12" t="n">
-        <v>23324</v>
+        <v>69208</v>
       </c>
       <c r="E12" t="n">
         <v>3434</v>
@@ -2786,7 +2787,7 @@
         <v>23841</v>
       </c>
       <c r="D13" t="n">
-        <v>23841</v>
+        <v>71507</v>
       </c>
       <c r="E13" t="n">
         <v>3864</v>
@@ -2893,7 +2894,7 @@
         <v>24359</v>
       </c>
       <c r="D14" t="n">
-        <v>24359</v>
+        <v>73807</v>
       </c>
       <c r="E14" t="n">
         <v>4293</v>
@@ -3000,7 +3001,7 @@
         <v>24876</v>
       </c>
       <c r="D15" t="n">
-        <v>24876</v>
+        <v>76106</v>
       </c>
       <c r="E15" t="n">
         <v>4722</v>
@@ -3107,7 +3108,7 @@
         <v>25393</v>
       </c>
       <c r="D16" t="n">
-        <v>25393</v>
+        <v>78405</v>
       </c>
       <c r="E16" t="n">
         <v>5152</v>
@@ -3214,7 +3215,7 @@
         <v>25911</v>
       </c>
       <c r="D17" t="n">
-        <v>25911</v>
+        <v>80705</v>
       </c>
       <c r="E17" t="n">
         <v>5581</v>
@@ -5504,7 +5505,7 @@
   </sheetPr>
   <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7160,4 +7161,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35130.5418016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4299.0986656</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2515.2458</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>47043.7906008</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6623.7788416</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3624.429</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>81439.7547856</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12412.0416</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7184.4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>81439.7547856</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12412.0416</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7184.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>76400.63505760001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10722.0336</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7184.4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>289764.678948</v>
+      </c>
+      <c r="U7" t="n">
+        <v>44648.017792</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30263.9256</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>266542.257708</v>
+      </c>
+      <c r="U8" t="n">
+        <v>37584.552832</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30263.9256</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>274283.064788</v>
+      </c>
+      <c r="U9" t="n">
+        <v>39939.041152</v>
+      </c>
+      <c r="V9" t="n">
+        <v>30263.9256</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2140</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>282023.871868</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42293.529472</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30263.9256</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2340</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>289764.678948</v>
+      </c>
+      <c r="U11" t="n">
+        <v>44648.017792</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30263.9256</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>289764.678948</v>
+      </c>
+      <c r="U12" t="n">
+        <v>44648.017792</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30263.9256</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>429492.2139528</v>
+      </c>
+      <c r="U13" t="n">
+        <v>67475.63652480001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>50057.8786</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3160</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>429492.2139528</v>
+      </c>
+      <c r="U14" t="n">
+        <v>67475.63652480001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>50057.8786</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3230</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1051835.6225888</v>
+      </c>
+      <c r="U15" t="n">
+        <v>168446.6726528</v>
+      </c>
+      <c r="V15" t="n">
+        <v>134784.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5353265.9738168</v>
+      </c>
+      <c r="U16" t="n">
+        <v>878709.8358304</v>
+      </c>
+      <c r="V16" t="n">
+        <v>693007.9035</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4070</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8758835.478324398</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1438363.6498016</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1123838.962</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4980</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>244868.3998364</v>
+      </c>
+      <c r="U18" t="n">
+        <v>39358.5161152</v>
+      </c>
+      <c r="V18" t="n">
+        <v>27335.04</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>329431.3069048001</v>
+      </c>
+      <c r="U19" t="n">
+        <v>51503.1344384</v>
+      </c>
+      <c r="V19" t="n">
+        <v>36972.212</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2140</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>418998.362052</v>
+      </c>
+      <c r="U20" t="n">
+        <v>65667.8347712</v>
+      </c>
+      <c r="V20" t="n">
+        <v>50280.2632</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2340</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>477495.6168356</v>
+      </c>
+      <c r="U21" t="n">
+        <v>78678.96327040001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>57265.3877</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3230</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>551667.54272</v>
+      </c>
+      <c r="U22" t="n">
+        <v>95561.2214336</v>
+      </c>
+      <c r="V22" t="n">
+        <v>69130.8645</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>702657.6859036</v>
+      </c>
+      <c r="U23" t="n">
+        <v>130226.9670048</v>
+      </c>
+      <c r="V23" t="n">
+        <v>93188.3355</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4070</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/1.xlsx
+++ b/opm_hero_property/heroes/1.xlsx
@@ -7169,7 +7169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7363,6 +7363,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7371,31 +7411,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7407,106 +7447,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35130.5418016</v>
+        <v>5488142.9738168</v>
       </c>
       <c r="U2" t="n">
-        <v>4299.0986656</v>
+        <v>902437.8358304</v>
       </c>
       <c r="V2" t="n">
-        <v>2515.2458</v>
+        <v>714847.9035</v>
       </c>
       <c r="W2" t="n">
-        <v>1900</v>
+        <v>2540</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4070</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11711379.907195</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1527735.87897656</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15839903.48617156</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7518,73 +7582,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>47043.7906008</v>
+        <v>702657.6859036</v>
       </c>
       <c r="U3" t="n">
-        <v>6623.7788416</v>
+        <v>130226.9670048</v>
       </c>
       <c r="V3" t="n">
-        <v>3624.429</v>
+        <v>93188.3355</v>
       </c>
       <c r="W3" t="n">
-        <v>1900</v>
+        <v>2540</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>4070</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1327969.240215</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>172927.79714672</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2151620.68736172</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7593,16 +7681,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7611,10 +7699,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7629,10 +7717,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7643,50 +7731,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>81439.7547856</v>
+        <v>8079.8984</v>
       </c>
       <c r="U4" t="n">
-        <v>12412.0416</v>
+        <v>1463.3547</v>
       </c>
       <c r="V4" t="n">
-        <v>7184.4</v>
+        <v>639.2457999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>1900</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7696,6 +7784,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19083.30918</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23582.20918</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7704,16 +7816,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7722,13 +7834,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7740,10 +7852,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7754,59 +7866,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>81439.7547856</v>
+        <v>21786.8742</v>
       </c>
       <c r="U5" t="n">
-        <v>12412.0416</v>
+        <v>3624.0792</v>
       </c>
       <c r="V5" t="n">
-        <v>7184.4</v>
+        <v>1970.429</v>
       </c>
       <c r="W5" t="n">
-        <v>1900</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB5" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1670</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48912.88743</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60819.68743</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7830,16 +7966,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7861,39 +7997,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>76400.63505760001</v>
+        <v>62232.6644</v>
       </c>
       <c r="U6" t="n">
-        <v>10722.0336</v>
+        <v>9325.700000000001</v>
       </c>
       <c r="V6" t="n">
-        <v>7184.4</v>
+        <v>6184.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1670</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7908,16 +8044,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>118168.1944</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9640.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>166707.7944</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7926,31 +8086,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7962,10 +8122,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7976,59 +8136,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>289764.678948</v>
+        <v>62232.6644</v>
       </c>
       <c r="U7" t="n">
-        <v>44648.017792</v>
+        <v>9325.700000000001</v>
       </c>
       <c r="V7" t="n">
-        <v>30263.9256</v>
+        <v>6184.4</v>
       </c>
       <c r="W7" t="n">
-        <v>2540</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>3090</v>
+        <v>1270</v>
       </c>
       <c r="AB7" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>118168.1944</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>166882.7944</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8037,31 +8221,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8073,10 +8257,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8087,59 +8271,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>266542.257708</v>
+        <v>62400.6350576</v>
       </c>
       <c r="U8" t="n">
-        <v>37584.552832</v>
+        <v>9382.033600000001</v>
       </c>
       <c r="V8" t="n">
-        <v>30263.9256</v>
+        <v>6184.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>3090</v>
+        <v>1270</v>
       </c>
       <c r="AB8" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>118168.1944</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>556.6724976</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>167439.4668976</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8163,7 +8371,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -8172,7 +8380,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8194,24 +8402,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>274283.064788</v>
+        <v>264979.177</v>
       </c>
       <c r="U9" t="n">
-        <v>39939.041152</v>
+        <v>37506.104</v>
       </c>
       <c r="V9" t="n">
-        <v>30263.9256</v>
+        <v>30390.9256</v>
       </c>
       <c r="W9" t="n">
-        <v>2140</v>
+        <v>1940</v>
       </c>
       <c r="X9" t="n">
         <v>930</v>
@@ -8244,13 +8452,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>540743.8668</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>709643.1168</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8274,7 +8506,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -8283,7 +8515,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8305,24 +8537,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>282023.871868</v>
+        <v>265753.257708</v>
       </c>
       <c r="U10" t="n">
-        <v>42293.529472</v>
+        <v>37741.552832</v>
       </c>
       <c r="V10" t="n">
-        <v>30263.9256</v>
+        <v>30390.9256</v>
       </c>
       <c r="W10" t="n">
-        <v>2340</v>
+        <v>1940</v>
       </c>
       <c r="X10" t="n">
         <v>930</v>
@@ -8355,13 +8587,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>540743.8668</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2398.6776488</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>712041.7944488002</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8385,7 +8641,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8394,7 +8650,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8416,24 +8672,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>289764.678948</v>
+        <v>273494.064788</v>
       </c>
       <c r="U11" t="n">
-        <v>44648.017792</v>
+        <v>40096.041152</v>
       </c>
       <c r="V11" t="n">
-        <v>30263.9256</v>
+        <v>30390.9256</v>
       </c>
       <c r="W11" t="n">
-        <v>2540</v>
+        <v>2140</v>
       </c>
       <c r="X11" t="n">
         <v>930</v>
@@ -8466,13 +8722,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>540743.8668</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>26715.4541368</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>736358.5709368</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8496,13 +8776,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8527,27 +8807,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>289764.678948</v>
+        <v>281234.871868</v>
       </c>
       <c r="U12" t="n">
-        <v>44648.017792</v>
+        <v>42450.529472</v>
       </c>
       <c r="V12" t="n">
-        <v>30263.9256</v>
+        <v>30390.9256</v>
       </c>
       <c r="W12" t="n">
-        <v>2540</v>
+        <v>2340</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -8556,7 +8836,7 @@
         <v>720</v>
       </c>
       <c r="AA12" t="n">
-        <v>3020</v>
+        <v>3090</v>
       </c>
       <c r="AB12" t="n">
         <v>1800</v>
@@ -8574,7 +8854,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8584,6 +8864,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>540743.8668</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>51032.2306248</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>760675.3474248</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8592,10 +8896,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8610,13 +8914,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8628,10 +8932,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8642,23 +8946,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>429492.2139528</v>
+        <v>288975.678948</v>
       </c>
       <c r="U13" t="n">
-        <v>67475.63652480001</v>
+        <v>44805.017792</v>
       </c>
       <c r="V13" t="n">
-        <v>50057.8786</v>
+        <v>30390.9256</v>
       </c>
       <c r="W13" t="n">
         <v>2540</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8667,7 +8971,7 @@
         <v>720</v>
       </c>
       <c r="AA13" t="n">
-        <v>3160</v>
+        <v>3090</v>
       </c>
       <c r="AB13" t="n">
         <v>1800</v>
@@ -8676,25 +8980,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>540743.8668</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>75349.0071128</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>784992.1239128001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8703,10 +9031,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8721,13 +9049,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8739,10 +9067,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8753,23 +9081,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>429492.2139528</v>
+        <v>288975.678948</v>
       </c>
       <c r="U14" t="n">
-        <v>67475.63652480001</v>
+        <v>44805.017792</v>
       </c>
       <c r="V14" t="n">
-        <v>50057.8786</v>
+        <v>30390.9256</v>
       </c>
       <c r="W14" t="n">
         <v>2540</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8778,7 +9106,7 @@
         <v>720</v>
       </c>
       <c r="AA14" t="n">
-        <v>3230</v>
+        <v>3020</v>
       </c>
       <c r="AB14" t="n">
         <v>1800</v>
@@ -8787,25 +9115,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>540743.8668</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>75349.0071128</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39443.60000000001</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>784817.1239128001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8814,10 +9166,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8832,13 +9184,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8850,10 +9202,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8864,23 +9216,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1051835.6225888</v>
+        <v>431992.2139528</v>
       </c>
       <c r="U15" t="n">
-        <v>168446.6726528</v>
+        <v>68283.63652480001</v>
       </c>
       <c r="V15" t="n">
-        <v>134784.5</v>
+        <v>50831.8786</v>
       </c>
       <c r="W15" t="n">
         <v>2540</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8889,7 +9241,7 @@
         <v>720</v>
       </c>
       <c r="AA15" t="n">
-        <v>3510</v>
+        <v>3160</v>
       </c>
       <c r="AB15" t="n">
         <v>1800</v>
@@ -8898,25 +9250,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>835934.5260900001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>112281.88183392</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>112125.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1207721.60792392</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8925,10 +9301,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8943,13 +9319,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8961,10 +9337,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8975,23 +9351,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5353265.9738168</v>
+        <v>431992.2139528</v>
       </c>
       <c r="U16" t="n">
-        <v>878709.8358304</v>
+        <v>68283.63652480001</v>
       </c>
       <c r="V16" t="n">
-        <v>693007.9035</v>
+        <v>50831.8786</v>
       </c>
       <c r="W16" t="n">
         <v>2540</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -9000,7 +9376,7 @@
         <v>720</v>
       </c>
       <c r="AA16" t="n">
-        <v>4070</v>
+        <v>3230</v>
       </c>
       <c r="AB16" t="n">
         <v>1800</v>
@@ -9009,25 +9385,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>835934.5260900001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>112281.88183392</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112300.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1207896.60792392</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9036,10 +9436,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -9054,13 +9454,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9072,10 +9472,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9086,23 +9486,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8758835.478324398</v>
+        <v>1089330.6225888</v>
       </c>
       <c r="U17" t="n">
-        <v>1438363.6498016</v>
+        <v>175303.6726528</v>
       </c>
       <c r="V17" t="n">
-        <v>1123838.962</v>
+        <v>141417.5</v>
       </c>
       <c r="W17" t="n">
         <v>2540</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -9111,7 +9511,7 @@
         <v>720</v>
       </c>
       <c r="AA17" t="n">
-        <v>4980</v>
+        <v>3510</v>
       </c>
       <c r="AB17" t="n">
         <v>1800</v>
@@ -9120,58 +9520,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1924500.00904</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>247379.82985312</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>683503.6000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3125240.58889312</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9183,106 +9607,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>244868.3998364</v>
+        <v>5488142.9738168</v>
       </c>
       <c r="U18" t="n">
-        <v>39358.5161152</v>
+        <v>902437.8358304</v>
       </c>
       <c r="V18" t="n">
-        <v>27335.04</v>
+        <v>714847.9035</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>2540</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>4070</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1670</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11711379.907195</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1527735.87897656</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15839903.48617156</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9294,37 +9742,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>329431.3069048001</v>
+        <v>9068553.478324398</v>
       </c>
       <c r="U19" t="n">
-        <v>51503.1344384</v>
+        <v>1492396.6498016</v>
       </c>
       <c r="V19" t="n">
-        <v>36972.212</v>
+        <v>1173070.962</v>
       </c>
       <c r="W19" t="n">
-        <v>2140</v>
+        <v>2540</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -9333,7 +9781,7 @@
         <v>720</v>
       </c>
       <c r="AA19" t="n">
-        <v>3020</v>
+        <v>4980</v>
       </c>
       <c r="AB19" t="n">
         <v>1800</v>
@@ -9342,25 +9790,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18999790.46033</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2483430.93312544</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3469133.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26128087.39345544</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9369,31 +9841,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9405,73 +9877,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>418998.362052</v>
+        <v>230868.3998364</v>
       </c>
       <c r="U20" t="n">
-        <v>65667.8347712</v>
+        <v>38018.5161152</v>
       </c>
       <c r="V20" t="n">
-        <v>50280.2632</v>
+        <v>26335.04</v>
       </c>
       <c r="W20" t="n">
-        <v>2340</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>3090</v>
+        <v>1270</v>
       </c>
       <c r="AB20" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>565475.7684600001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2629.17257128</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33824.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>649365.14103128</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9480,31 +9976,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9516,73 +10012,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>477495.6168356</v>
+        <v>300031.3069048</v>
       </c>
       <c r="U21" t="n">
-        <v>78678.96327040001</v>
+        <v>48689.1344384</v>
       </c>
       <c r="V21" t="n">
-        <v>57265.3877</v>
+        <v>34872.212</v>
       </c>
       <c r="W21" t="n">
-        <v>2540</v>
+        <v>1300</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>3230</v>
+        <v>1940</v>
       </c>
       <c r="AB21" t="n">
-        <v>1800</v>
+        <v>1125</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>674188.46462</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>33646.38890976</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>67649.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>843620.3035297601</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9591,10 +10111,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9606,16 +10126,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9627,37 +10147,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>551667.54272</v>
+        <v>418998.362052</v>
       </c>
       <c r="U22" t="n">
-        <v>95561.2214336</v>
+        <v>65667.8347712</v>
       </c>
       <c r="V22" t="n">
-        <v>69130.8645</v>
+        <v>50280.2632</v>
       </c>
       <c r="W22" t="n">
-        <v>2540</v>
+        <v>2340</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9666,7 +10186,7 @@
         <v>720</v>
       </c>
       <c r="AA22" t="n">
-        <v>3510</v>
+        <v>3090</v>
       </c>
       <c r="AB22" t="n">
         <v>1800</v>
@@ -9675,25 +10195,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>859650.94236</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>78290.29301328</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>97518.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1173001.93537328</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9702,10 +10246,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9720,13 +10264,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9738,10 +10282,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9752,23 +10296,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>702657.6859036</v>
+        <v>477495.6168356</v>
       </c>
       <c r="U23" t="n">
-        <v>130226.9670048</v>
+        <v>78678.96327040001</v>
       </c>
       <c r="V23" t="n">
-        <v>93188.3355</v>
+        <v>57265.3877</v>
       </c>
       <c r="W23" t="n">
         <v>2540</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9777,7 +10321,7 @@
         <v>720</v>
       </c>
       <c r="AA23" t="n">
-        <v>4070</v>
+        <v>3230</v>
       </c>
       <c r="AB23" t="n">
         <v>1800</v>
@@ -9786,25 +10330,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>939795.510795</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>125275.68188136</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>152526</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1362120.44267636</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>551667.54272</v>
+      </c>
+      <c r="U24" t="n">
+        <v>95561.2214336</v>
+      </c>
+      <c r="V24" t="n">
+        <v>69130.8645</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1066104.167455</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>140648.42403184</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>257621.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1621706.44148684</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>702657.6859036</v>
+      </c>
+      <c r="U25" t="n">
+        <v>130226.9670048</v>
+      </c>
+      <c r="V25" t="n">
+        <v>93188.3355</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4070</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1327969.240215</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>172927.79714672</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2151620.68736172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/1.xlsx
+++ b/opm_hero_property/heroes/1.xlsx
@@ -7169,7 +7169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7365,40 +7365,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7438,7 +7458,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -7461,17 +7481,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5488142.9738168</v>
+        <v>6450441.3064728</v>
       </c>
       <c r="U2" t="n">
-        <v>902437.8358304</v>
+        <v>1046835.5176144</v>
       </c>
       <c r="V2" t="n">
-        <v>714847.9035</v>
+        <v>863001.69578</v>
       </c>
       <c r="W2" t="n">
         <v>2540</v>
@@ -7510,33 +7530,41 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11711379.907195</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1527735.87897656</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>15839903.48617156</v>
+        <v>2942468.792575601</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1873682.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18650430.12874716</v>
       </c>
     </row>
     <row r="3">
@@ -7573,7 +7601,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -7596,17 +7624,17 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>702657.6859036</v>
+        <v>811028.3646156</v>
       </c>
       <c r="U3" t="n">
-        <v>130226.9670048</v>
+        <v>146488.5418128</v>
       </c>
       <c r="V3" t="n">
-        <v>93188.3355</v>
+        <v>110220.88234</v>
       </c>
       <c r="W3" t="n">
         <v>2540</v>
@@ -7645,33 +7673,41 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1327969.240215</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>172927.79714672</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2151620.68736172</v>
+        <v>573975.1392172</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>212341.15</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2470133.37657892</v>
       </c>
     </row>
     <row r="4">
@@ -7708,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -7731,17 +7767,17 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>8079.8984</v>
+        <v>8586.8984</v>
       </c>
       <c r="U4" t="n">
-        <v>1463.3547</v>
+        <v>1539.3547</v>
       </c>
       <c r="V4" t="n">
-        <v>639.2457999999999</v>
+        <v>717.2457999999999</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7780,25 +7816,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19083.30918</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7806,7 +7838,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23582.20918</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1479.9</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25062.10918</v>
       </c>
     </row>
     <row r="5">
@@ -7843,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -7866,17 +7910,17 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>3,2,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>21786.8742</v>
+        <v>36683.8742</v>
       </c>
       <c r="U5" t="n">
-        <v>3624.0792</v>
+        <v>5859.0792</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.429</v>
+        <v>4263.429</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7915,25 +7959,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48912.88743</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7941,7 +7981,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60819.68743</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43503.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>104322.93743</v>
       </c>
     </row>
     <row r="6">
@@ -7978,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -8001,17 +8053,17 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>4,3,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>62232.6644</v>
+        <v>126097.6644</v>
       </c>
       <c r="U6" t="n">
-        <v>9325.700000000001</v>
+        <v>18908.7</v>
       </c>
       <c r="V6" t="n">
-        <v>6184.4</v>
+        <v>16016.4</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -8050,33 +8102,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>118168.1944</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9640.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>166707.7944</v>
+      <c r="AT6" t="n">
+        <v>186521.7</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>353229.4944</v>
       </c>
     </row>
     <row r="7">
@@ -8113,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -8136,17 +8196,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>4,3,2,2,0,1,0,0</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>62232.6644</v>
+        <v>126097.6644</v>
       </c>
       <c r="U7" t="n">
-        <v>9325.700000000001</v>
+        <v>18908.7</v>
       </c>
       <c r="V7" t="n">
-        <v>6184.4</v>
+        <v>16016.4</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -8185,33 +8245,41 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>118168.1944</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>166882.7944</v>
+      <c r="AT7" t="n">
+        <v>186521.7</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>353404.4944</v>
       </c>
     </row>
     <row r="8">
@@ -8248,7 +8316,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -8271,17 +8339,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,1,1,0,0</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>62400.6350576</v>
+        <v>126265.6350576</v>
       </c>
       <c r="U8" t="n">
-        <v>9382.033600000001</v>
+        <v>18965.0336</v>
       </c>
       <c r="V8" t="n">
-        <v>6184.4</v>
+        <v>16016.4</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -8320,33 +8388,41 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>118168.1944</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>556.6724976</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>167439.4668976</v>
+      <c r="AT8" t="n">
+        <v>186521.7</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>353961.1668976001</v>
       </c>
     </row>
     <row r="9">
@@ -8383,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -8406,35 +8482,35 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>5,3,3,3,0,2,1,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>264979.177</v>
+        <v>453348.37877</v>
       </c>
       <c r="U9" t="n">
-        <v>37506.104</v>
+        <v>65198.41504</v>
       </c>
       <c r="V9" t="n">
-        <v>30390.9256</v>
+        <v>57734.184856</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>3090</v>
+        <v>3100</v>
       </c>
       <c r="AB9" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8455,33 +8531,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>540743.8668</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>709643.1168</v>
+        <v>45017.78866800001</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>437043.1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1246433.005468</v>
       </c>
     </row>
     <row r="10">
@@ -8518,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -8541,35 +8625,35 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>5,3,3,3,1,2,1,0</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>265753.257708</v>
+        <v>511893.623748604</v>
       </c>
       <c r="U10" t="n">
-        <v>37741.552832</v>
+        <v>74511.050971392</v>
       </c>
       <c r="V10" t="n">
-        <v>30390.9256</v>
+        <v>64270.600183408</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>3090</v>
+        <v>3100</v>
       </c>
       <c r="AB10" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8590,33 +8674,45 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>540743.8668</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2398.6776488</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
       <c r="AS10" t="n">
-        <v>712041.7944488002</v>
+        <v>45017.78866800001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>437043.1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>252335.7433890049</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1406819.826505805</v>
       </c>
     </row>
     <row r="11">
@@ -8653,7 +8749,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -8676,35 +8772,35 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,2,2,1,0</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>273494.064788</v>
+        <v>583948.485356044</v>
       </c>
       <c r="U11" t="n">
-        <v>40096.041152</v>
+        <v>85660.988870912</v>
       </c>
       <c r="V11" t="n">
-        <v>30390.9256</v>
+        <v>71396.60018340801</v>
       </c>
       <c r="W11" t="n">
-        <v>2140</v>
+        <v>2150</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>3090</v>
+        <v>3100</v>
       </c>
       <c r="AB11" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8725,33 +8821,45 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>540743.8668</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>26715.4541368</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
-        <v>736358.5709368</v>
+        <v>45017.78866800001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>437043.1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>418312.9000151329</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1597113.759619933</v>
       </c>
     </row>
     <row r="12">
@@ -8788,7 +8896,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -8811,35 +8919,35 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>281234.871868</v>
+        <v>674207.215184398</v>
       </c>
       <c r="U12" t="n">
-        <v>42450.529472</v>
+        <v>97606.41616275199</v>
       </c>
       <c r="V12" t="n">
-        <v>30390.9256</v>
+        <v>82199.40461995201</v>
       </c>
       <c r="W12" t="n">
-        <v>2340</v>
+        <v>2360</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>3090</v>
+        <v>3110</v>
       </c>
       <c r="AB12" t="n">
-        <v>1800</v>
+        <v>1880</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8860,33 +8968,45 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>540743.8668</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>51032.2306248</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>760675.3474248</v>
+        <v>45017.78866800001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>437043.1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>629244.4271793108</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1832362.063272111</v>
       </c>
     </row>
     <row r="13">
@@ -8923,7 +9043,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -8946,35 +9066,35 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,4,2,1,0</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>288975.678948</v>
+        <v>778182.595213078</v>
       </c>
       <c r="U13" t="n">
-        <v>44805.017792</v>
+        <v>112858.612737472</v>
       </c>
       <c r="V13" t="n">
-        <v>30390.9256</v>
+        <v>93052.87661995202</v>
       </c>
       <c r="W13" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>3090</v>
+        <v>3140</v>
       </c>
       <c r="AB13" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8995,33 +9115,45 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>540743.8668</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>75349.0071128</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="n">
-        <v>784992.1239128001</v>
+        <v>45017.78866800001</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>437043.1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>877240.6510855588</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2104675.063666359</v>
       </c>
     </row>
     <row r="14">
@@ -9058,7 +9190,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -9081,35 +9213,35 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,4,2,0,0</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>288975.678948</v>
+        <v>909874.522992464</v>
       </c>
       <c r="U14" t="n">
-        <v>44805.017792</v>
+        <v>127673.680723968</v>
       </c>
       <c r="V14" t="n">
-        <v>30390.9256</v>
+        <v>103504.061292544</v>
       </c>
       <c r="W14" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>3020</v>
+        <v>3070</v>
       </c>
       <c r="AB14" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -9130,33 +9262,45 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>540743.8668</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>75349.0071128</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39443.60000000001</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
-        <v>784817.1239128001</v>
+        <v>44842.78866800001</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>437043.1</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1171250.859839171</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2398510.272419971</v>
       </c>
     </row>
     <row r="15">
@@ -9193,7 +9337,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -9216,35 +9360,35 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,2,0</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>431992.2139528</v>
+        <v>1457582.653450863</v>
       </c>
       <c r="U15" t="n">
-        <v>68283.63652480001</v>
+        <v>215993.467541176</v>
       </c>
       <c r="V15" t="n">
-        <v>50831.8786</v>
+        <v>177158.886167396</v>
       </c>
       <c r="W15" t="n">
-        <v>2540</v>
+        <v>2640</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>3160</v>
+        <v>3260</v>
       </c>
       <c r="AB15" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9265,33 +9409,45 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>835934.5260900001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>112281.88183392</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>112125.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="n">
-        <v>1207721.60792392</v>
+        <v>128827.5905218</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>799655.3500000001</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1956011.026501784</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3980090.174947504</v>
       </c>
     </row>
     <row r="16">
@@ -9328,7 +9484,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -9351,35 +9507,35 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>431992.2139528</v>
+        <v>1485025.702401211</v>
       </c>
       <c r="U16" t="n">
-        <v>68283.63652480001</v>
+        <v>220005.1964016048</v>
       </c>
       <c r="V16" t="n">
-        <v>50831.8786</v>
+        <v>180384.888026148</v>
       </c>
       <c r="W16" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>3230</v>
+        <v>3430</v>
       </c>
       <c r="AB16" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9400,33 +9556,45 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>835934.5260900001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>112281.88183392</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112300.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="n">
-        <v>1207896.60792392</v>
+        <v>129002.5905218</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>799655.3500000001</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2030884.515276915</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4055138.663722636</v>
       </c>
     </row>
     <row r="17">
@@ -9463,7 +9631,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -9486,35 +9654,35 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1089330.6225888</v>
+        <v>2739692.95109545</v>
       </c>
       <c r="U17" t="n">
-        <v>175303.6726528</v>
+        <v>406084.1158877696</v>
       </c>
       <c r="V17" t="n">
-        <v>141417.5</v>
+        <v>347507.4956800001</v>
       </c>
       <c r="W17" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>3510</v>
+        <v>3710</v>
       </c>
       <c r="AB17" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9535,33 +9703,45 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1924500.00904</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>247379.82985312</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>683503.6000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3125240.58889312</v>
+        <v>760450.6003616001</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1277658.2</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3075559.66162634</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7555405.45088106</v>
       </c>
     </row>
     <row r="18">
@@ -9598,7 +9778,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -9621,35 +9801,35 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5488142.9738168</v>
+        <v>9669189.05118612</v>
       </c>
       <c r="U18" t="n">
-        <v>902437.8358304</v>
+        <v>1438905.708692899</v>
       </c>
       <c r="V18" t="n">
-        <v>714847.9035</v>
+        <v>1187997.63988204</v>
       </c>
       <c r="W18" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>4070</v>
+        <v>4270</v>
       </c>
       <c r="AB18" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9670,33 +9850,45 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11711379.907195</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1527735.87897656</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="n">
-        <v>15839903.48617156</v>
+        <v>2942468.792575601</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1873682.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7795158.741741693</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26445588.87048885</v>
       </c>
     </row>
     <row r="19">
@@ -9733,7 +9925,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -9756,35 +9948,35 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9068553.478324398</v>
+        <v>16709882.06130265</v>
       </c>
       <c r="U19" t="n">
-        <v>1492396.6498016</v>
+        <v>2595571.399683014</v>
       </c>
       <c r="V19" t="n">
-        <v>1173070.962</v>
+        <v>2132641.1722592</v>
       </c>
       <c r="W19" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>4980</v>
+        <v>5180</v>
       </c>
       <c r="AB19" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9805,33 +9997,45 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18999790.46033</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2483430.93312544</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3469133.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
       <c r="AS19" t="n">
-        <v>26128087.39345544</v>
+        <v>6318978.0190495</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1873682.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>16049635.99710091</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46901250.45960585</v>
       </c>
     </row>
     <row r="20">
@@ -9868,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -9891,17 +10095,17 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,1,1,0,0</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>230868.3998364</v>
+        <v>238060.3998364</v>
       </c>
       <c r="U20" t="n">
-        <v>38018.5161152</v>
+        <v>39097.5161152</v>
       </c>
       <c r="V20" t="n">
-        <v>26335.04</v>
+        <v>27465.04</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9940,33 +10144,41 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>565475.7684600001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2629.17257128</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33824.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>649365.14103128</v>
+      <c r="AT20" t="n">
+        <v>21134.6</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>670499.74103128</v>
       </c>
     </row>
     <row r="21">
@@ -10003,7 +10215,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -10026,17 +10238,17 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,2,2,0,0</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>300031.3069048</v>
+        <v>314858.5052468</v>
       </c>
       <c r="U21" t="n">
-        <v>48689.1344384</v>
+        <v>50939.5915564</v>
       </c>
       <c r="V21" t="n">
-        <v>34872.212</v>
+        <v>37141.57412</v>
       </c>
       <c r="W21" t="n">
         <v>1300</v>
@@ -10075,33 +10287,41 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>674188.46462</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>33646.38890976</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>67649.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>843620.3035297601</v>
+        <v>74383.2346462</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36670.55</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>887024.48817596</v>
       </c>
     </row>
     <row r="22">
@@ -10138,7 +10358,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -10161,35 +10381,35 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>418998.362052</v>
+        <v>549682.7136921339</v>
       </c>
       <c r="U22" t="n">
-        <v>65667.8347712</v>
+        <v>83861.24729167118</v>
       </c>
       <c r="V22" t="n">
-        <v>50280.2632</v>
+        <v>65888.756641888</v>
       </c>
       <c r="W22" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>3090</v>
+        <v>3140</v>
       </c>
       <c r="AB22" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10210,33 +10430,45 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>859650.94236</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>78290.29301328</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>97518.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="n">
-        <v>1173001.93537328</v>
+        <v>106106.6594236</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49521.2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>288458.2758986412</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1519569.670695521</v>
       </c>
     </row>
     <row r="23">
@@ -10273,7 +10505,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -10296,35 +10528,35 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>477495.6168356</v>
+        <v>700699.3648881456</v>
       </c>
       <c r="U23" t="n">
-        <v>78678.96327040001</v>
+        <v>113421.9881034888</v>
       </c>
       <c r="V23" t="n">
-        <v>57265.3877</v>
+        <v>84323.26532392201</v>
       </c>
       <c r="W23" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>3230</v>
+        <v>3430</v>
       </c>
       <c r="AB23" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10345,33 +10577,45 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>939795.510795</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>125275.68188136</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>152526</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="n">
-        <v>1362120.44267636</v>
+        <v>171305.4102159</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90617.89999999999</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>511516.1055225099</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1983033.85841477</v>
       </c>
     </row>
     <row r="24">
@@ -10408,7 +10652,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -10431,35 +10675,35 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>551667.54272</v>
+        <v>883041.5586291199</v>
       </c>
       <c r="U24" t="n">
-        <v>95561.2214336</v>
+        <v>147703.6047982512</v>
       </c>
       <c r="V24" t="n">
-        <v>69130.8645</v>
+        <v>110489.19409164</v>
       </c>
       <c r="W24" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>3510</v>
+        <v>3710</v>
       </c>
       <c r="AB24" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10480,33 +10724,45 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1066104.167455</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>140648.42403184</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>257621.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1621706.44148684</v>
+        <v>300232.3666982</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144792.05</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>743963.6395789431</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2553073.297763983</v>
       </c>
     </row>
     <row r="25">
@@ -10543,7 +10799,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -10566,35 +10822,35 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>702657.6859036</v>
+        <v>1510457.438548013</v>
       </c>
       <c r="U25" t="n">
-        <v>130226.9670048</v>
+        <v>253794.0235885008</v>
       </c>
       <c r="V25" t="n">
-        <v>93188.3355</v>
+        <v>191706.70921662</v>
       </c>
       <c r="W25" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>4070</v>
+        <v>4270</v>
       </c>
       <c r="AB25" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10615,33 +10871,45 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1327969.240215</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>172927.79714672</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="n">
-        <v>2151620.68736172</v>
+        <v>573975.1392172</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>212341.15</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1910780.402725314</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4380913.779304233</v>
       </c>
     </row>
   </sheetData>
